--- a/Projeto/Geração das Amostras/excel/parte_2_planilha_4.xlsx
+++ b/Projeto/Geração das Amostras/excel/parte_2_planilha_4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="31">
   <si>
     <t>exam_id</t>
   </si>
@@ -28,6 +28,87 @@
   </si>
   <si>
     <t>comentario</t>
+  </si>
+  <si>
+    <t>RBBB</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>LBBB</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Ritmo alterado por possível arrtimia sinusal ou extrassístoles.</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Taquicardia muito próxima de 100 bpm</t>
+  </si>
+  <si>
+    <t>Interferência limítrofe para aVF</t>
+  </si>
+  <si>
+    <t>QRS muito próximo de 120 ms</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Borderline devido a presença de interferência prejudicando a análise do QRS em precordiais. Presença de extrassístoles ventriculares polimórficas.</t>
+  </si>
+  <si>
+    <t>Taquicardia muito próxima de 100 bpm. Presença de interferência em precordiais.</t>
+  </si>
+  <si>
+    <t>Taquicardia muito próxima de 100 bpm. Presença de sobrecarga ventricular esquerda.</t>
+  </si>
+  <si>
+    <t>Associado a possível arrtimia sinusal, com análise prejudicada por interferência.</t>
+  </si>
+  <si>
+    <t>Borderline para BAV 1 ° (iPR = 200 ms )</t>
+  </si>
+  <si>
+    <t>Associado a arritmia sinusal ou extrassístoles</t>
+  </si>
+  <si>
+    <t>Interferência prejudicando a visualização das precordiais.</t>
+  </si>
+  <si>
+    <t>Presença de extrassístole supraventricular</t>
+  </si>
+  <si>
+    <t>Interferência impediu a visualização de V1.</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t>Sobrecarga ventricular esquerda.</t>
+  </si>
+  <si>
+    <t>Taquicardia muito próxima de 100 bpm. Presença de sobrecarga atrial direita</t>
+  </si>
+  <si>
+    <t>Interferência prejudicando a avaliação se o ritmo é sinusal.</t>
+  </si>
+  <si>
+    <t>Borderline para Bloqueio de ramo esquerdo</t>
+  </si>
+  <si>
+    <t>Associado a sobrecarga ventricular esquerda</t>
   </si>
 </sst>
 </file>
@@ -81,14 +162,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -316,1463 +403,1832 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1698444.0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1720327.0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1730052.0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1740173.0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1771845.0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>1776514.0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1787555.0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>1792808.0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>1794872.0</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>1830145.0</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>1839701.0</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>1846063.0</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>1846363.0</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>1856673.0</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>1866847.0</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>1901214.0</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>1959046.0</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>1993469.0</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>2003597.0</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>2036802.0</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>2505539.0</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>2521679.0</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>2536288.0</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>2655396.0</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>2657506.0</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>2687122.0</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>2752941.0</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>2754542.0</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>2758186.0</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>2771747.0</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>2777340.0</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>2823281.0</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>2824070.0</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>2825702.0</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>2830745.0</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>2834332.0</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>2843330.0</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>2849919.0</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>2889682.0</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>2916565.0</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>2921860.0</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>2923885.0</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>2941901.0</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>2944723.0</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>2945334.0</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>2962837.0</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>2971113.0</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>2986619.0</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>2990622.0</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>2995993.0</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>3008552.0</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>3022559.0</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>3055667.0</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>3057183.0</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>3081661.0</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>3083851.0</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>3093288.0</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>3115201.0</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>3135487.0</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>3136429.0</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>3156174.0</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>3161443.0</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>3174192.0</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>3175454.0</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>3182236.0</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>3190926.0</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>3199039.0</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>3215212.0</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>3395258.0</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>3794806.0</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>3795160.0</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="B72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>4199933.0</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>4274868.0</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>4400473.0</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>4404264.0</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="B76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>4409371.0</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
     </row>
     <row r="307" ht="15.75" customHeight="1"/>
     <row r="308" ht="15.75" customHeight="1"/>
